--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="73" documentId="63E710481CA4C80D3A4A4199E85BECCE5FDBC395" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{0F581874-8443-4F87-AC63-60537CCD0B9E}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="63E710481CA4C80D3A4A4199E85BECCE5FDBC395" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{6A925B00-5FC8-474D-8BE2-6D496D71A6D9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,14 +172,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,6 +189,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+      <color rgb="FF5B9BD5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,6 +204,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DB7230-2505-48A0-A077-972DAE4D4E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286375" y="371475"/>
+          <a:ext cx="6686550" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="52941"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="4000"/>
+            <a:t>Noch nicht fertig geplant, wir werden dies in den kommenden Wochen Updaten</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +545,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -595,17 +674,17 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
@@ -622,40 +701,40 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="M9" s="3"/>
@@ -664,10 +743,10 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="4"/>
+      <c r="R10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -681,5 +760,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="63E710481CA4C80D3A4A4199E85BECCE5FDBC395" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{6A925B00-5FC8-474D-8BE2-6D496D71A6D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>1. Woche</t>
   </si>
@@ -98,6 +97,9 @@
   </si>
   <si>
     <t>Wahl Technologie und kleine Tests damit</t>
+  </si>
+  <si>
+    <t>Task Nummer 2</t>
   </si>
   <si>
     <t>Task Nummer 1</t>
@@ -107,7 +109,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,20 +176,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -211,14 +221,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -234,8 +244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5286375" y="371475"/>
-          <a:ext cx="6686550" cy="3267075"/>
+          <a:off x="5120640" y="1655445"/>
+          <a:ext cx="6638925" cy="3301365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,8 +279,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="de-CH" sz="4000"/>
-            <a:t>Noch nicht fertig geplant, wir werden dies in den kommenden Wochen Updaten</a:t>
+            <a:t>Disclaimer: Dieser</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="4000" baseline="0"/>
+            <a:t> Plan ist ein Work in Progress und wird über den Projektverlauf weiter angepasst und verfeinert werden.</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -545,211 +560,221 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="L5" sqref="L5:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43002</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>43009</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>43016</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43023</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>43030</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>43037</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>43044</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>43051</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>43058</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>43065</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>43072</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>43079</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>43086</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>43093</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>43100</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>43107</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>43114</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
         <v>43119</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="R3" s="5" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="D5" s="4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="F6" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H7" s="4" t="s">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="J8" s="4" t="s">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="Q10" s="6" t="s">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E5:F5"/>
@@ -757,6 +782,7 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="E4:P4"/>
+    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>1. Woche</t>
   </si>
@@ -99,10 +99,37 @@
     <t>Wahl Technologie und kleine Tests damit</t>
   </si>
   <si>
-    <t>Task Nummer 2</t>
-  </si>
-  <si>
-    <t>Task Nummer 1</t>
+    <t>Outlier ausfiltern</t>
+  </si>
+  <si>
+    <t>Gute Transkriptionen erkennen</t>
+  </si>
+  <si>
+    <t>Tippfehler / Alternativen behandeln</t>
+  </si>
+  <si>
+    <t>Schweizerdeutsch &lt;-&gt; Deutsch alignieren</t>
+  </si>
+  <si>
+    <t>Task Nummer 2 (CH-&gt;DE Übersetzungen)</t>
+  </si>
+  <si>
+    <t>Gute Transkribtionen erkennen</t>
+  </si>
+  <si>
+    <t>Task Nummer 1 (CH Transkribtionen)</t>
+  </si>
+  <si>
+    <t>Schreibvarianten  / Synonyme alignieren</t>
+  </si>
+  <si>
+    <t>*** interpolieren, Tippfehler / Alternativen behandeln</t>
+  </si>
+  <si>
+    <t>Wörter / Ausdrücke String-Alignierung</t>
+  </si>
+  <si>
+    <t>Schweizerdeutsche Schreibvarianten alignieren</t>
   </si>
 </sst>
 </file>
@@ -132,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -172,11 +205,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -185,14 +298,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -214,84 +342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596265</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DB7230-2505-48A0-A077-972DAE4D4E78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5120640" y="1655445"/>
-          <a:ext cx="6638925" cy="3301365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000">
-            <a:alpha val="52941"/>
-          </a:srgbClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="4000"/>
-            <a:t>Disclaimer: Dieser</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="4000" baseline="0"/>
-            <a:t> Plan ist ein Work in Progress und wird über den Projektverlauf weiter angepasst und verfeinert werden.</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="4000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:R5"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,41 +751,18 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="L5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -744,7 +771,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -753,7 +780,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -762,16 +789,178 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E13" s="16"/>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L20" s="16"/>
+      <c r="M20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L21" s="16"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L22" s="16"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.3">
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -781,11 +970,10 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="L18:R18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>1. Woche</t>
   </si>
@@ -102,15 +102,9 @@
     <t>Outlier ausfiltern</t>
   </si>
   <si>
-    <t>Gute Transkriptionen erkennen</t>
-  </si>
-  <si>
     <t>Tippfehler / Alternativen behandeln</t>
   </si>
   <si>
-    <t>Schweizerdeutsch &lt;-&gt; Deutsch alignieren</t>
-  </si>
-  <si>
     <t>Task Nummer 2 (CH-&gt;DE Übersetzungen)</t>
   </si>
   <si>
@@ -129,7 +123,7 @@
     <t>Wörter / Ausdrücke String-Alignierung</t>
   </si>
   <si>
-    <t>Schweizerdeutsche Schreibvarianten alignieren</t>
+    <t>Gute Übersetzungen erkennen</t>
   </si>
 </sst>
 </file>
@@ -289,29 +283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,6 +300,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -607,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,233 +734,187 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q10" s="8" t="s">
+      <c r="E10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="Q10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
-      <c r="F13" s="13" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K20" s="11"/>
+      <c r="L20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K21" s="11"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L20" s="16"/>
-      <c r="M20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L21" s="16"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L22" s="16"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="12:18" x14ac:dyDescent="0.3">
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="L18:R18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="45C1CC58B5362C6FCD129DE922EA08F0CBBED421" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E04001AC-6028-41D8-9F2F-84636AB4F0CB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -283,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -300,16 +307,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -599,24 +607,24 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43002</v>
       </c>
@@ -728,78 +736,82 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L3" s="22"/>
       <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H6" s="21"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="18" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="Q10" s="16" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="Q10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
@@ -811,7 +823,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E12" s="11"/>
       <c r="F12" s="8" t="s">
         <v>29</v>
@@ -823,7 +835,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E13" s="11"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -835,7 +847,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -847,19 +859,19 @@
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="18" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K18" s="18" t="s">
+    <row r="18" spans="11:18" x14ac:dyDescent="0.45">
+      <c r="K18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-    </row>
-    <row r="19" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.45">
       <c r="K19" s="7" t="s">
         <v>26</v>
       </c>
@@ -871,9 +883,9 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:18" x14ac:dyDescent="0.45">
       <c r="K20" s="11"/>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="M20" s="8"/>
@@ -883,7 +895,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:18" x14ac:dyDescent="0.45">
       <c r="K21" s="11"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -895,7 +907,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:18" x14ac:dyDescent="0.45">
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>

--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="45C1CC58B5362C6FCD129DE922EA08F0CBBED421" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E04001AC-6028-41D8-9F2F-84636AB4F0CB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>1. Woche</t>
   </si>
@@ -103,28 +102,19 @@
     <t>Outlier ausfiltern</t>
   </si>
   <si>
-    <t>Tippfehler / Alternativen behandeln</t>
-  </si>
-  <si>
-    <t>Task Nummer 2 (CH-&gt;DE Übersetzungen)</t>
-  </si>
-  <si>
     <t>Gute Transkribtionen erkennen</t>
   </si>
   <si>
     <t>Task Nummer 1 (CH Transkribtionen)</t>
   </si>
   <si>
-    <t>Schreibvarianten  / Synonyme alignieren</t>
-  </si>
-  <si>
     <t>*** interpolieren, Tippfehler / Alternativen behandeln</t>
   </si>
   <si>
     <t>Wörter / Ausdrücke String-Alignierung</t>
   </si>
   <si>
-    <t>Gute Übersetzungen erkennen</t>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -290,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -310,14 +300,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -604,27 +593,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43002</v>
       </c>
@@ -736,22 +725,22 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="L3" s="22"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L3" s="19"/>
       <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
@@ -759,9 +748,9 @@
         <v>21</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
@@ -769,9 +758,9 @@
         <v>22</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
@@ -780,7 +769,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
@@ -789,15 +778,15 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -811,7 +800,7 @@
       </c>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
@@ -823,10 +812,10 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E12" s="11"/>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -835,89 +824,39 @@
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E13" s="11"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="18" spans="11:18" x14ac:dyDescent="0.45">
-      <c r="K18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
-    </row>
-    <row r="19" spans="11:18" x14ac:dyDescent="0.45">
-      <c r="K19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="11:18" x14ac:dyDescent="0.45">
-      <c r="K20" s="11"/>
-      <c r="L20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.45">
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="8" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.45">
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="E708F7476A8FCD9F2B3827E86A53CE31EEC2684B" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -595,25 +596,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="3" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43002</v>
       </c>
@@ -725,13 +726,13 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="L3" s="19"/>
       <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
@@ -740,7 +741,7 @@
       <c r="D4" s="21"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
@@ -750,7 +751,7 @@
       <c r="F5" s="21"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
@@ -760,7 +761,7 @@
       <c r="H6" s="21"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
@@ -769,7 +770,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
@@ -778,13 +779,13 @@
       </c>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
@@ -800,7 +801,7 @@
       </c>
       <c r="R10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
@@ -812,7 +813,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E12" s="11"/>
       <c r="F12" s="8" t="s">
         <v>27</v>
@@ -824,7 +825,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E13" s="11"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -836,7 +837,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -848,7 +849,7 @@
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="M15" s="17" t="s">
         <v>31</v>
       </c>

--- a/doc/IP5_project_plan.xlsx
+++ b/doc/IP5_project_plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="E708F7476A8FCD9F2B3827E86A53CE31EEC2684B" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="E708F7476A8FCD9F2B3827E86A53CE31EEC2684B" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B5DE29C2-7CE9-48AB-91C6-5AAFBD3C2740}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +182,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -281,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,7 +295,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -727,57 +720,57 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="L3" s="19"/>
+      <c r="L3"/>
       <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="L4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="L5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="L5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="L6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="L6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="M9" s="6"/>
@@ -796,10 +789,10 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="E11" s="7" t="s">
